--- a/resouces/ColumnExcel/tbl_written_score.xlsx
+++ b/resouces/ColumnExcel/tbl_written_score.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>列名</t>
   </si>
@@ -22,9 +22,6 @@
     <t>数据类型</t>
   </si>
   <si>
-    <t>主键</t>
-  </si>
-  <si>
     <t>是否非空</t>
   </si>
   <si>
@@ -35,9 +32,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>PRI</t>
   </si>
   <si>
     <t>NO</t>
@@ -146,8 +140,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -653,16 +647,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1110,22 +1104,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.05" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.05" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25.8983050847458" customWidth="1"/>
+    <col min="1" max="1" width="23.2966101694915" customWidth="1"/>
     <col min="2" max="2" width="10.3305084745763" customWidth="1"/>
-    <col min="3" max="3" width="5.11016949152542" customWidth="1"/>
-    <col min="4" max="4" width="8.88983050847458" customWidth="1"/>
-    <col min="5" max="5" width="32.0084745762712" customWidth="1"/>
+    <col min="3" max="3" width="8.88983050847458" customWidth="1"/>
+    <col min="4" max="4" width="22.4661016949153" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1138,205 +1131,187 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
